--- a/UAL/output/dept1705/Anthony Sanchez_2023.xlsx
+++ b/UAL/output/dept1705/Anthony Sanchez_2023.xlsx
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Andrew N. French, C. A. Sanchez, Douglas J. Hunsaker, Raymond G. Anderson, Mazin N. Saber, Elzbieta Wisniewski</t>
+          <t>Andrew N. French, C. A. Sanchez, Troy A. Wirth, Andrew Scott, John W. Shields, E. Bautista, Mazin N. Saber, Elzbieta Wisniewski, Mohammadreza R. Gohardoust</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USDA-Agricultural Research Service, Arid Land Agricultural Research Center; University of Arizona, Yuma Agricultural Center; USDA-Agricultural Research Service, Arid Land Agricultural Research Center; Agricultural Research Service; University of Arizona, Yuma Agricultural Center; USDA-Agricultural Research Service, Arid Land Agricultural Research Center</t>
+          <t>US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA; US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387160432</t>
+          <t>https://openalex.org/W4388730607</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lettuce evapotranspiration and crop coefficients using eddy covariance and remote sensing observations</t>
+          <t>Remote sensing of evapotranspiration for irrigated crops at Yuma, Arizona, USA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>Agricultural Water Management</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3374240/v1</t>
+          <t>https://doi.org/10.1016/j.agwat.2023.108582</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3374240/v1</t>
+          <t>https://doi.org/10.1016/j.agwat.2023.108582</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Andrew N. French, C. A. Sanchez, Troy A. Wirth, Andrew Scott, John W. Shields, E. Bautista, Mazin N. Saber, Elzbieta Wisniewski, Mohammadreza R. Gohardoust</t>
+          <t>Andrew N. French, C. A. Sanchez, Douglas J. Hunsaker, Raymond G. Anderson, Mazin N. Saber, Elzbieta Wisniewski</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA; US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA</t>
+          <t>USDA-Agricultural Research Service, Arid Land Agricultural Research Center; University of Arizona, Yuma Agricultural Center; USDA-Agricultural Research Service, Arid Land Agricultural Research Center; Agricultural Research Service; University of Arizona, Yuma Agricultural Center; USDA-Agricultural Research Service, Arid Land Agricultural Research Center</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388730607</t>
+          <t>https://openalex.org/W4387160432</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Remote sensing of evapotranspiration for irrigated crops at Yuma, Arizona, USA</t>
+          <t>Lettuce evapotranspiration and crop coefficients using eddy covariance and remote sensing observations</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Agricultural Water Management</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.agwat.2023.108582</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3374240/v1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.agwat.2023.108582</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3374240/v1</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">

--- a/UAL/output/dept1705/Anthony Sanchez_2023.xlsx
+++ b/UAL/output/dept1705/Anthony Sanchez_2023.xlsx
@@ -882,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Andrew N. French, C. A. Sanchez, Troy A. Wirth, Andrew Scott, John W. Shields, E. Bautista, Mazin N. Saber, Elzbieta Wisniewski, Mohammadreza R. Gohardoust</t>
+          <t>Andrew N. French, C. A. Sanchez, Douglas J. Hunsaker, Raymond G. Anderson, Mazin N. Saber, Elzbieta Wisniewski</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA; US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA</t>
+          <t>USDA-Agricultural Research Service, Arid Land Agricultural Research Center; University of Arizona, Yuma Agricultural Center; USDA-Agricultural Research Service, Arid Land Agricultural Research Center; Agricultural Research Service; University of Arizona, Yuma Agricultural Center; USDA-Agricultural Research Service, Arid Land Agricultural Research Center</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388730607</t>
+          <t>https://openalex.org/W4387160432</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Remote sensing of evapotranspiration for irrigated crops at Yuma, Arizona, USA</t>
+          <t>Lettuce evapotranspiration and crop coefficients using eddy covariance and remote sensing observations</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Agricultural Water Management</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.agwat.2023.108582</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3374240/v1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.agwat.2023.108582</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3374240/v1</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Andrew N. French, C. A. Sanchez, Douglas J. Hunsaker, Raymond G. Anderson, Mazin N. Saber, Elzbieta Wisniewski</t>
+          <t>Andrew N. French, C. A. Sanchez, Troy A. Wirth, Andrew Scott, John W. Shields, E. Bautista, Mazin N. Saber, Elzbieta Wisniewski, Mohammadreza R. Gohardoust</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USDA-Agricultural Research Service, Arid Land Agricultural Research Center; University of Arizona, Yuma Agricultural Center; USDA-Agricultural Research Service, Arid Land Agricultural Research Center; Agricultural Research Service; University of Arizona, Yuma Agricultural Center; USDA-Agricultural Research Service, Arid Land Agricultural Research Center</t>
+          <t>US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Bureau of Reclamation, Boulder City, NV, USA; US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA; US Department of Agriculture, ARS, Maricopa, AZ USA; University of Arizona, Maricopa, AZ, USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387160432</t>
+          <t>https://openalex.org/W4388730607</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lettuce evapotranspiration and crop coefficients using eddy covariance and remote sensing observations</t>
+          <t>Remote sensing of evapotranspiration for irrigated crops at Yuma, Arizona, USA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>Agricultural Water Management</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3374240/v1</t>
+          <t>https://doi.org/10.1016/j.agwat.2023.108582</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3374240/v1</t>
+          <t>https://doi.org/10.1016/j.agwat.2023.108582</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
